--- a/Family League 2022.xlsx
+++ b/Family League 2022.xlsx
@@ -10,14 +10,16 @@
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
-    <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
+    <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
+    <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
+    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="68">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -55,57 +57,99 @@
     <t>DadBods 69ers</t>
   </si>
   <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>1-13-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
     <t>Teams</t>
   </si>
   <si>
-    <t>7 - 7 - 0</t>
-  </si>
-  <si>
-    <t>6 - 8 - 0</t>
-  </si>
-  <si>
-    <t>5 - 9 - 0</t>
-  </si>
-  <si>
-    <t>3 - 11 - 0</t>
-  </si>
-  <si>
-    <t>9 - 5 - 0</t>
-  </si>
-  <si>
-    <t>8 - 6 - 0</t>
-  </si>
-  <si>
-    <t>1 - 13 - 0</t>
-  </si>
-  <si>
-    <t>10 - 4 - 0</t>
-  </si>
-  <si>
-    <t>11 - 3 - 0</t>
-  </si>
-  <si>
-    <t>2 - 12 - 0</t>
-  </si>
-  <si>
-    <t>4 - 10 - 0</t>
-  </si>
-  <si>
-    <t>12 - 2 - 0</t>
-  </si>
-  <si>
-    <t>Avg Wins Against Schedule</t>
+    <t>Wins Against Schedule</t>
   </si>
   <si>
     <t>Record</t>
   </si>
   <si>
+    <t>Team</t>
+  </si>
+  <si>
     <t>Expected Wins</t>
   </si>
   <si>
     <t>Difference</t>
   </si>
   <si>
+    <t>Place 1</t>
+  </si>
+  <si>
+    <t>Place 2</t>
+  </si>
+  <si>
+    <t>Place 3</t>
+  </si>
+  <si>
+    <t>Place 4</t>
+  </si>
+  <si>
+    <t>Place 5</t>
+  </si>
+  <si>
+    <t>Place 6</t>
+  </si>
+  <si>
+    <t>Place 7</t>
+  </si>
+  <si>
+    <t>Place 8</t>
+  </si>
+  <si>
+    <t>Place 9</t>
+  </si>
+  <si>
+    <t>Place 10</t>
+  </si>
+  <si>
+    <t>Place 11</t>
+  </si>
+  <si>
+    <t>Place 12</t>
+  </si>
+  <si>
+    <t>Chance of making playoffs</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
@@ -137,6 +181,48 @@
   </si>
   <si>
     <t>↓6</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
 </sst>
 </file>
@@ -501,9 +587,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,40 +629,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -587,40 +670,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -628,40 +711,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -669,40 +752,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -710,40 +793,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -751,40 +834,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="s">
+      <c r="L7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" t="s">
-        <v>14</v>
-      </c>
       <c r="M7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -792,40 +875,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -833,40 +916,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>17</v>
       </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -874,40 +957,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
         <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -915,40 +998,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="M11" t="s">
         <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -956,40 +1039,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -997,40 +1080,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" t="s">
-        <v>18</v>
-      </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1048,7 +1131,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
@@ -1059,7 +1142,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1068,12 +1151,12 @@
         <v>5.583333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1082,12 +1165,12 @@
         <v>5.75</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1096,12 +1179,12 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1110,12 +1193,12 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1124,12 +1207,12 @@
         <v>6.666666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1138,12 +1221,12 @@
         <v>6.833333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1152,12 +1235,12 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1166,12 +1249,12 @@
         <v>7.75</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1180,12 +1263,12 @@
         <v>7.75</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1194,12 +1277,12 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1208,12 +1291,12 @@
         <v>8.083333333333334</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1222,7 +1305,7 @@
         <v>8.583333333333334</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1240,13 +1323,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
@@ -1254,7 +1337,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1266,12 +1349,12 @@
         <v>0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1283,12 +1366,12 @@
         <v>-0.3333333333333339</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1300,12 +1383,12 @@
         <v>0.3333333333333339</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1317,12 +1400,12 @@
         <v>0.916666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1334,38 +1417,38 @@
         <v>2.666666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>7.333333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.666666666666667</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>7.333333333333333</v>
       </c>
       <c r="D8">
-        <v>-1.666666666666667</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -1373,41 +1456,41 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>7.083333333333333</v>
       </c>
       <c r="D9">
-        <v>0.08333333333333304</v>
+        <v>-1.916666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
       </c>
       <c r="C10">
         <v>7.083333333333333</v>
       </c>
       <c r="D10">
-        <v>-1.916666666666667</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1419,12 +1502,12 @@
         <v>-0.166666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1436,12 +1519,12 @@
         <v>0.25</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1453,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1462,6 +1545,591 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>63.01</v>
+      </c>
+      <c r="C2">
+        <v>22.02</v>
+      </c>
+      <c r="D2">
+        <v>8.42</v>
+      </c>
+      <c r="E2">
+        <v>3.54</v>
+      </c>
+      <c r="F2">
+        <v>1.59</v>
+      </c>
+      <c r="G2">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="H2">
+        <v>0.33</v>
+      </c>
+      <c r="I2">
+        <v>0.21</v>
+      </c>
+      <c r="J2">
+        <v>0.06</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>99.94000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>17.15</v>
+      </c>
+      <c r="C3">
+        <v>24.17</v>
+      </c>
+      <c r="D3">
+        <v>19.98</v>
+      </c>
+      <c r="E3">
+        <v>13.01</v>
+      </c>
+      <c r="F3">
+        <v>9.58</v>
+      </c>
+      <c r="G3">
+        <v>6.29</v>
+      </c>
+      <c r="H3">
+        <v>4.51</v>
+      </c>
+      <c r="I3">
+        <v>2.84</v>
+      </c>
+      <c r="J3">
+        <v>1.54</v>
+      </c>
+      <c r="K3">
+        <v>0.84</v>
+      </c>
+      <c r="L3">
+        <v>0.09</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>97.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>8.540000000000001</v>
+      </c>
+      <c r="C4">
+        <v>16.51</v>
+      </c>
+      <c r="D4">
+        <v>16.03</v>
+      </c>
+      <c r="E4">
+        <v>14.96</v>
+      </c>
+      <c r="F4">
+        <v>12.44</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="I4">
+        <v>6.460000000000001</v>
+      </c>
+      <c r="J4">
+        <v>4.58</v>
+      </c>
+      <c r="K4">
+        <v>2.72</v>
+      </c>
+      <c r="L4">
+        <v>0.36</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>92.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.83</v>
+      </c>
+      <c r="C5">
+        <v>10.23</v>
+      </c>
+      <c r="D5">
+        <v>11.78</v>
+      </c>
+      <c r="E5">
+        <v>12.99</v>
+      </c>
+      <c r="F5">
+        <v>12.74</v>
+      </c>
+      <c r="G5">
+        <v>11.71</v>
+      </c>
+      <c r="H5">
+        <v>11.13</v>
+      </c>
+      <c r="I5">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="J5">
+        <v>8.43</v>
+      </c>
+      <c r="K5">
+        <v>6.31</v>
+      </c>
+      <c r="L5">
+        <v>1.07</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>84.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>2.65</v>
+      </c>
+      <c r="C6">
+        <v>7.59</v>
+      </c>
+      <c r="D6">
+        <v>11.07</v>
+      </c>
+      <c r="E6">
+        <v>12.19</v>
+      </c>
+      <c r="F6">
+        <v>12.31</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>12.09</v>
+      </c>
+      <c r="I6">
+        <v>10.8</v>
+      </c>
+      <c r="J6">
+        <v>10.24</v>
+      </c>
+      <c r="K6">
+        <v>7.57</v>
+      </c>
+      <c r="L6">
+        <v>1.46</v>
+      </c>
+      <c r="M6">
+        <v>0.03</v>
+      </c>
+      <c r="N6">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1.62</v>
+      </c>
+      <c r="C7">
+        <v>5.27</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>10.54</v>
+      </c>
+      <c r="F7">
+        <v>10.76</v>
+      </c>
+      <c r="G7">
+        <v>11.63</v>
+      </c>
+      <c r="H7">
+        <v>12.38</v>
+      </c>
+      <c r="I7">
+        <v>12.97</v>
+      </c>
+      <c r="J7">
+        <v>12.78</v>
+      </c>
+      <c r="K7">
+        <v>11.3</v>
+      </c>
+      <c r="L7">
+        <v>2.73</v>
+      </c>
+      <c r="M7">
+        <v>0.02</v>
+      </c>
+      <c r="N7">
+        <v>73.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1.22</v>
+      </c>
+      <c r="C8">
+        <v>4.38</v>
+      </c>
+      <c r="D8">
+        <v>7.08</v>
+      </c>
+      <c r="E8">
+        <v>9.569999999999999</v>
+      </c>
+      <c r="F8">
+        <v>11.08</v>
+      </c>
+      <c r="G8">
+        <v>12.42</v>
+      </c>
+      <c r="H8">
+        <v>12.96</v>
+      </c>
+      <c r="I8">
+        <v>12.41</v>
+      </c>
+      <c r="J8">
+        <v>12.89</v>
+      </c>
+      <c r="K8">
+        <v>12.36</v>
+      </c>
+      <c r="L8">
+        <v>3.6</v>
+      </c>
+      <c r="M8">
+        <v>0.03</v>
+      </c>
+      <c r="N8">
+        <v>71.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="C9">
+        <v>4.34</v>
+      </c>
+      <c r="D9">
+        <v>6.69</v>
+      </c>
+      <c r="E9">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>11.95</v>
+      </c>
+      <c r="H9">
+        <v>12.65</v>
+      </c>
+      <c r="I9">
+        <v>13.51</v>
+      </c>
+      <c r="J9">
+        <v>13.89</v>
+      </c>
+      <c r="K9">
+        <v>13.63</v>
+      </c>
+      <c r="L9">
+        <v>4.06</v>
+      </c>
+      <c r="M9">
+        <v>0.02</v>
+      </c>
+      <c r="N9">
+        <v>68.40000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.84</v>
+      </c>
+      <c r="C10">
+        <v>3.58</v>
+      </c>
+      <c r="D10">
+        <v>6.859999999999999</v>
+      </c>
+      <c r="E10">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="F10">
+        <v>10.87</v>
+      </c>
+      <c r="G10">
+        <v>12.47</v>
+      </c>
+      <c r="H10">
+        <v>12.75</v>
+      </c>
+      <c r="I10">
+        <v>13.88</v>
+      </c>
+      <c r="J10">
+        <v>13.46</v>
+      </c>
+      <c r="K10">
+        <v>12.68</v>
+      </c>
+      <c r="L10">
+        <v>3.91</v>
+      </c>
+      <c r="M10">
+        <v>0.06</v>
+      </c>
+      <c r="N10">
+        <v>69.89000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0.24</v>
+      </c>
+      <c r="C11">
+        <v>1.89</v>
+      </c>
+      <c r="D11">
+        <v>4.05</v>
+      </c>
+      <c r="E11">
+        <v>6.140000000000001</v>
+      </c>
+      <c r="F11">
+        <v>8.43</v>
+      </c>
+      <c r="G11">
+        <v>10.27</v>
+      </c>
+      <c r="H11">
+        <v>12.56</v>
+      </c>
+      <c r="I11">
+        <v>14.97</v>
+      </c>
+      <c r="J11">
+        <v>16.94</v>
+      </c>
+      <c r="K11">
+        <v>17.22</v>
+      </c>
+      <c r="L11">
+        <v>7.1</v>
+      </c>
+      <c r="M11">
+        <v>0.19</v>
+      </c>
+      <c r="N11">
+        <v>58.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.02</v>
+      </c>
+      <c r="D12">
+        <v>0.04</v>
+      </c>
+      <c r="E12">
+        <v>0.06</v>
+      </c>
+      <c r="F12">
+        <v>0.2</v>
+      </c>
+      <c r="G12">
+        <v>0.44</v>
+      </c>
+      <c r="H12">
+        <v>1.24</v>
+      </c>
+      <c r="I12">
+        <v>2.17</v>
+      </c>
+      <c r="J12">
+        <v>5.18</v>
+      </c>
+      <c r="K12">
+        <v>15.25</v>
+      </c>
+      <c r="L12">
+        <v>66.92</v>
+      </c>
+      <c r="M12">
+        <v>8.48</v>
+      </c>
+      <c r="N12">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.01</v>
+      </c>
+      <c r="K13">
+        <v>0.12</v>
+      </c>
+      <c r="L13">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="M13">
+        <v>91.17</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -1471,21 +2139,21 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1494,15 +2162,15 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1511,15 +2179,15 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1528,15 +2196,15 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1545,15 +2213,15 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1562,15 +2230,15 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1579,15 +2247,15 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1596,15 +2264,15 @@
         <v>-9</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1613,15 +2281,15 @@
         <v>-11</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1630,15 +2298,15 @@
         <v>-11</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1647,15 +2315,15 @@
         <v>-15</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1664,15 +2332,15 @@
         <v>-29</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1681,10 +2349,670 @@
         <v>-69</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-5</v>
+      </c>
+      <c r="C2">
+        <v>-2</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>27</v>
+      </c>
+      <c r="M2">
+        <v>29</v>
+      </c>
+      <c r="N2">
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>32</v>
+      </c>
+      <c r="L3">
+        <v>31</v>
+      </c>
+      <c r="M3">
+        <v>34</v>
+      </c>
+      <c r="N3">
+        <v>26</v>
+      </c>
+      <c r="O3">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4">
         <v>22</v>
       </c>
-      <c r="E13" t="s">
-        <v>36</v>
+      <c r="J4">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>26</v>
+      </c>
+      <c r="L4">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>22</v>
+      </c>
+      <c r="N4">
+        <v>24</v>
+      </c>
+      <c r="O4">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>17</v>
+      </c>
+      <c r="L5">
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>23</v>
+      </c>
+      <c r="J6">
+        <v>26</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>14</v>
+      </c>
+      <c r="N6">
+        <v>14</v>
+      </c>
+      <c r="O6">
+        <v>18</v>
+      </c>
+      <c r="P6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>-5</v>
+      </c>
+      <c r="I8">
+        <v>-9</v>
+      </c>
+      <c r="J8">
+        <v>-16</v>
+      </c>
+      <c r="K8">
+        <v>-14</v>
+      </c>
+      <c r="L8">
+        <v>-11</v>
+      </c>
+      <c r="M8">
+        <v>-10</v>
+      </c>
+      <c r="N8">
+        <v>-6</v>
+      </c>
+      <c r="O8">
+        <v>-9</v>
+      </c>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>-2</v>
+      </c>
+      <c r="J9">
+        <v>-10</v>
+      </c>
+      <c r="K9">
+        <v>-13</v>
+      </c>
+      <c r="L9">
+        <v>-14</v>
+      </c>
+      <c r="M9">
+        <v>-10</v>
+      </c>
+      <c r="N9">
+        <v>-7</v>
+      </c>
+      <c r="O9">
+        <v>-11</v>
+      </c>
+      <c r="P9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>-6</v>
+      </c>
+      <c r="D10">
+        <v>-9</v>
+      </c>
+      <c r="E10">
+        <v>-4</v>
+      </c>
+      <c r="F10">
+        <v>-11</v>
+      </c>
+      <c r="G10">
+        <v>-12</v>
+      </c>
+      <c r="H10">
+        <v>-11</v>
+      </c>
+      <c r="I10">
+        <v>-15</v>
+      </c>
+      <c r="J10">
+        <v>-8</v>
+      </c>
+      <c r="K10">
+        <v>-8</v>
+      </c>
+      <c r="L10">
+        <v>-3</v>
+      </c>
+      <c r="M10">
+        <v>-7</v>
+      </c>
+      <c r="N10">
+        <v>-9</v>
+      </c>
+      <c r="O10">
+        <v>-11</v>
+      </c>
+      <c r="P10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>-7</v>
+      </c>
+      <c r="C11">
+        <v>-16</v>
+      </c>
+      <c r="D11">
+        <v>-25</v>
+      </c>
+      <c r="E11">
+        <v>-29</v>
+      </c>
+      <c r="F11">
+        <v>-19</v>
+      </c>
+      <c r="G11">
+        <v>-20</v>
+      </c>
+      <c r="H11">
+        <v>-17</v>
+      </c>
+      <c r="I11">
+        <v>-19</v>
+      </c>
+      <c r="J11">
+        <v>-16</v>
+      </c>
+      <c r="K11">
+        <v>-14</v>
+      </c>
+      <c r="L11">
+        <v>-13</v>
+      </c>
+      <c r="M11">
+        <v>-12</v>
+      </c>
+      <c r="N11">
+        <v>-10</v>
+      </c>
+      <c r="O11">
+        <v>-15</v>
+      </c>
+      <c r="P11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>-11</v>
+      </c>
+      <c r="C12">
+        <v>-11</v>
+      </c>
+      <c r="D12">
+        <v>-18</v>
+      </c>
+      <c r="E12">
+        <v>-22</v>
+      </c>
+      <c r="F12">
+        <v>-22</v>
+      </c>
+      <c r="G12">
+        <v>-19</v>
+      </c>
+      <c r="H12">
+        <v>-16</v>
+      </c>
+      <c r="I12">
+        <v>-17</v>
+      </c>
+      <c r="J12">
+        <v>-15</v>
+      </c>
+      <c r="K12">
+        <v>-21</v>
+      </c>
+      <c r="L12">
+        <v>-20</v>
+      </c>
+      <c r="M12">
+        <v>-19</v>
+      </c>
+      <c r="N12">
+        <v>-23</v>
+      </c>
+      <c r="O12">
+        <v>-29</v>
+      </c>
+      <c r="P12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>-9</v>
+      </c>
+      <c r="C13">
+        <v>-20</v>
+      </c>
+      <c r="D13">
+        <v>-20</v>
+      </c>
+      <c r="E13">
+        <v>-20</v>
+      </c>
+      <c r="F13">
+        <v>-24</v>
+      </c>
+      <c r="G13">
+        <v>-31</v>
+      </c>
+      <c r="H13">
+        <v>-31</v>
+      </c>
+      <c r="I13">
+        <v>-33</v>
+      </c>
+      <c r="J13">
+        <v>-43</v>
+      </c>
+      <c r="K13">
+        <v>-47</v>
+      </c>
+      <c r="L13">
+        <v>-54</v>
+      </c>
+      <c r="M13">
+        <v>-55</v>
+      </c>
+      <c r="N13">
+        <v>-65</v>
+      </c>
+      <c r="O13">
+        <v>-69</v>
+      </c>
+      <c r="P13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Family League 2022.xlsx
+++ b/Family League 2022.xlsx
@@ -1601,31 +1601,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>63.01</v>
+        <v>63.09</v>
       </c>
       <c r="C2">
-        <v>22.02</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>8.42</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="E2">
-        <v>3.54</v>
+        <v>3.57</v>
       </c>
       <c r="F2">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="G2">
-        <v>0.8200000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="H2">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="I2">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="J2">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.94000000000001</v>
+        <v>99.92</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1645,43 +1645,43 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>17.15</v>
+        <v>17.21</v>
       </c>
       <c r="C3">
-        <v>24.17</v>
+        <v>24.05</v>
       </c>
       <c r="D3">
-        <v>19.98</v>
+        <v>20.01</v>
       </c>
       <c r="E3">
-        <v>13.01</v>
+        <v>13.59</v>
       </c>
       <c r="F3">
-        <v>9.58</v>
+        <v>9.41</v>
       </c>
       <c r="G3">
-        <v>6.29</v>
+        <v>6.23</v>
       </c>
       <c r="H3">
-        <v>4.51</v>
+        <v>4.01</v>
       </c>
       <c r="I3">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="K3">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="L3">
-        <v>0.09</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>97.53</v>
+        <v>97.51000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1689,43 +1689,43 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>8.540000000000001</v>
+        <v>8.32</v>
       </c>
       <c r="C4">
+        <v>16.86</v>
+      </c>
+      <c r="D4">
         <v>16.51</v>
       </c>
-      <c r="D4">
-        <v>16.03</v>
-      </c>
       <c r="E4">
-        <v>14.96</v>
+        <v>14.41</v>
       </c>
       <c r="F4">
-        <v>12.44</v>
+        <v>12.61</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>9.950000000000001</v>
       </c>
       <c r="H4">
-        <v>7.399999999999999</v>
+        <v>8.219999999999999</v>
       </c>
       <c r="I4">
-        <v>6.460000000000001</v>
+        <v>6.510000000000001</v>
       </c>
       <c r="J4">
-        <v>4.58</v>
+        <v>3.89</v>
       </c>
       <c r="K4">
-        <v>2.72</v>
+        <v>2.39</v>
       </c>
       <c r="L4">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>92.34</v>
+        <v>93.39</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1733,43 +1733,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.83</v>
+        <v>3.7</v>
       </c>
       <c r="C5">
-        <v>10.23</v>
+        <v>9.56</v>
       </c>
       <c r="D5">
-        <v>11.78</v>
+        <v>11.28</v>
       </c>
       <c r="E5">
-        <v>12.99</v>
+        <v>13.08</v>
       </c>
       <c r="F5">
-        <v>12.74</v>
+        <v>12.03</v>
       </c>
       <c r="G5">
-        <v>11.71</v>
+        <v>12.42</v>
       </c>
       <c r="H5">
-        <v>11.13</v>
+        <v>11.69</v>
       </c>
       <c r="I5">
-        <v>9.779999999999999</v>
+        <v>10.81</v>
       </c>
       <c r="J5">
-        <v>8.43</v>
+        <v>8.290000000000001</v>
       </c>
       <c r="K5">
-        <v>6.31</v>
+        <v>6.05</v>
       </c>
       <c r="L5">
         <v>1.07</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N5">
-        <v>84.19</v>
+        <v>84.56999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1777,43 +1777,43 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="C6">
-        <v>7.59</v>
+        <v>7.77</v>
       </c>
       <c r="D6">
-        <v>11.07</v>
+        <v>10.53</v>
       </c>
       <c r="E6">
-        <v>12.19</v>
+        <v>11.32</v>
       </c>
       <c r="F6">
-        <v>12.31</v>
+        <v>11.98</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>12.78</v>
       </c>
       <c r="H6">
-        <v>12.09</v>
+        <v>12.77</v>
       </c>
       <c r="I6">
-        <v>10.8</v>
+        <v>10.66</v>
       </c>
       <c r="J6">
-        <v>10.24</v>
+        <v>9.85</v>
       </c>
       <c r="K6">
-        <v>7.57</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="L6">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="M6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="N6">
-        <v>80.7</v>
+        <v>80.48</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1821,43 +1821,43 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="C7">
-        <v>5.27</v>
+        <v>6.03</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="E7">
-        <v>10.54</v>
+        <v>10.41</v>
       </c>
       <c r="F7">
-        <v>10.76</v>
+        <v>11.33</v>
       </c>
       <c r="G7">
-        <v>11.63</v>
+        <v>11.21</v>
       </c>
       <c r="H7">
-        <v>12.38</v>
+        <v>12.31</v>
       </c>
       <c r="I7">
-        <v>12.97</v>
+        <v>12.3</v>
       </c>
       <c r="J7">
-        <v>12.78</v>
+        <v>12.34</v>
       </c>
       <c r="K7">
-        <v>11.3</v>
+        <v>11.54</v>
       </c>
       <c r="L7">
-        <v>2.73</v>
+        <v>2.42</v>
       </c>
       <c r="M7">
         <v>0.02</v>
       </c>
       <c r="N7">
-        <v>73.17</v>
+        <v>73.67999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1865,43 +1865,43 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="C8">
-        <v>4.38</v>
+        <v>4.35</v>
       </c>
       <c r="D8">
-        <v>7.08</v>
+        <v>7.55</v>
       </c>
       <c r="E8">
-        <v>9.569999999999999</v>
+        <v>9.68</v>
       </c>
       <c r="F8">
-        <v>11.08</v>
+        <v>11.2</v>
       </c>
       <c r="G8">
-        <v>12.42</v>
+        <v>11.5</v>
       </c>
       <c r="H8">
-        <v>12.96</v>
+        <v>12.52</v>
       </c>
       <c r="I8">
-        <v>12.41</v>
+        <v>12.87</v>
       </c>
       <c r="J8">
-        <v>12.89</v>
+        <v>13.25</v>
       </c>
       <c r="K8">
-        <v>12.36</v>
+        <v>12.15</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="M8">
         <v>0.03</v>
       </c>
       <c r="N8">
-        <v>71.12</v>
+        <v>70.92</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1909,43 +1909,43 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.8999999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="C9">
-        <v>4.34</v>
+        <v>3.93</v>
       </c>
       <c r="D9">
-        <v>6.69</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="E9">
-        <v>8.359999999999999</v>
+        <v>8.92</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>10.27</v>
       </c>
       <c r="G9">
-        <v>11.95</v>
+        <v>12.53</v>
       </c>
       <c r="H9">
-        <v>12.65</v>
+        <v>12.23</v>
       </c>
       <c r="I9">
-        <v>13.51</v>
+        <v>13.32</v>
       </c>
       <c r="J9">
-        <v>13.89</v>
+        <v>13.74</v>
       </c>
       <c r="K9">
-        <v>13.63</v>
+        <v>13.25</v>
       </c>
       <c r="L9">
-        <v>4.06</v>
+        <v>4.31</v>
       </c>
       <c r="M9">
         <v>0.02</v>
       </c>
       <c r="N9">
-        <v>68.40000000000001</v>
+        <v>68.68000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1953,43 +1953,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
         <v>3.58</v>
       </c>
       <c r="D10">
-        <v>6.859999999999999</v>
+        <v>6.819999999999999</v>
       </c>
       <c r="E10">
-        <v>8.640000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="F10">
         <v>10.87</v>
       </c>
       <c r="G10">
-        <v>12.47</v>
+        <v>12.06</v>
       </c>
       <c r="H10">
-        <v>12.75</v>
+        <v>12.8</v>
       </c>
       <c r="I10">
-        <v>13.88</v>
+        <v>13.98</v>
       </c>
       <c r="J10">
-        <v>13.46</v>
+        <v>13.97</v>
       </c>
       <c r="K10">
-        <v>12.68</v>
+        <v>12.49</v>
       </c>
       <c r="L10">
-        <v>3.91</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="N10">
-        <v>69.89000000000001</v>
+        <v>69.74000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1997,43 +1997,43 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="C11">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="D11">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="E11">
-        <v>6.140000000000001</v>
+        <v>6.11</v>
       </c>
       <c r="F11">
-        <v>8.43</v>
+        <v>8.459999999999999</v>
       </c>
       <c r="G11">
-        <v>10.27</v>
+        <v>10.12</v>
       </c>
       <c r="H11">
-        <v>12.56</v>
+        <v>12.09</v>
       </c>
       <c r="I11">
-        <v>14.97</v>
+        <v>14.21</v>
       </c>
       <c r="J11">
-        <v>16.94</v>
+        <v>17.33</v>
       </c>
       <c r="K11">
-        <v>17.22</v>
+        <v>17.73</v>
       </c>
       <c r="L11">
-        <v>7.1</v>
+        <v>7.62</v>
       </c>
       <c r="M11">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="N11">
-        <v>58.55</v>
+        <v>57.20999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2044,40 +2044,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D12">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F12">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G12">
         <v>0.44</v>
       </c>
       <c r="H12">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="I12">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="J12">
-        <v>5.18</v>
+        <v>5.609999999999999</v>
       </c>
       <c r="K12">
-        <v>15.25</v>
+        <v>15.34</v>
       </c>
       <c r="L12">
-        <v>66.92</v>
+        <v>67.2</v>
       </c>
       <c r="M12">
-        <v>8.48</v>
+        <v>7.95</v>
       </c>
       <c r="N12">
-        <v>4.17</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2109,16 +2109,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K13">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="L13">
-        <v>8.699999999999999</v>
+        <v>8.06</v>
       </c>
       <c r="M13">
-        <v>91.17</v>
+        <v>91.79000000000001</v>
       </c>
       <c r="N13">
         <v>0</v>

--- a/Family League 2022.xlsx
+++ b/Family League 2022.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
     <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
+    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="88">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -150,12 +151,51 @@
     <t>Chance of making playoffs</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Michael Dickert</t>
+  </si>
+  <si>
+    <t>Noah Wallach</t>
+  </si>
+  <si>
+    <t>Matt Wallach</t>
+  </si>
+  <si>
+    <t>Jordan Wallach</t>
+  </si>
+  <si>
+    <t>Kari Dickert</t>
+  </si>
+  <si>
+    <t>Ted Wallach</t>
+  </si>
+  <si>
+    <t>Zach Wallach</t>
+  </si>
+  <si>
+    <t>lawrence wallach</t>
+  </si>
+  <si>
+    <t>Diana Wallach</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>Gabe Musty</t>
+  </si>
+  <si>
     <t>↑6</t>
   </si>
   <si>
@@ -223,6 +263,27 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Home Team</t>
+  </si>
+  <si>
+    <t>Away Team</t>
+  </si>
+  <si>
+    <t>Home LPI</t>
+  </si>
+  <si>
+    <t>Away LPI</t>
+  </si>
+  <si>
+    <t>LPI Difference</t>
+  </si>
+  <si>
+    <t>Winner</t>
   </si>
 </sst>
 </file>
@@ -1601,34 +1662,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>63.09</v>
+        <v>63.98</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="D2">
-        <v>8.380000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E2">
-        <v>3.57</v>
+        <v>3.36</v>
       </c>
       <c r="F2">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="G2">
-        <v>0.76</v>
+        <v>0.64</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="I2">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="J2">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1637,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.92</v>
+        <v>99.97</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1645,43 +1706,43 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>17.21</v>
+        <v>17.18</v>
       </c>
       <c r="C3">
-        <v>24.05</v>
+        <v>24.62</v>
       </c>
       <c r="D3">
-        <v>20.01</v>
+        <v>18.91</v>
       </c>
       <c r="E3">
-        <v>13.59</v>
+        <v>13.67</v>
       </c>
       <c r="F3">
-        <v>9.41</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G3">
-        <v>6.23</v>
+        <v>6.49</v>
       </c>
       <c r="H3">
-        <v>4.01</v>
+        <v>4.36</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="J3">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="K3">
-        <v>0.79</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L3">
-        <v>0.06999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>97.51000000000002</v>
+        <v>97.64999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1689,43 +1750,43 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>8.32</v>
+        <v>7.7</v>
       </c>
       <c r="C4">
-        <v>16.86</v>
+        <v>16.04</v>
       </c>
       <c r="D4">
-        <v>16.51</v>
+        <v>16.44</v>
       </c>
       <c r="E4">
-        <v>14.41</v>
+        <v>14.7</v>
       </c>
       <c r="F4">
-        <v>12.61</v>
+        <v>12.85</v>
       </c>
       <c r="G4">
-        <v>9.950000000000001</v>
+        <v>10.93</v>
       </c>
       <c r="H4">
-        <v>8.219999999999999</v>
+        <v>7.76</v>
       </c>
       <c r="I4">
-        <v>6.510000000000001</v>
+        <v>6.329999999999999</v>
       </c>
       <c r="J4">
-        <v>3.89</v>
+        <v>4.3</v>
       </c>
       <c r="K4">
-        <v>2.39</v>
+        <v>2.65</v>
       </c>
       <c r="L4">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>93.39</v>
+        <v>92.75</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1733,43 +1794,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="C5">
-        <v>9.56</v>
+        <v>9.92</v>
       </c>
       <c r="D5">
-        <v>11.28</v>
+        <v>12.33</v>
       </c>
       <c r="E5">
-        <v>13.08</v>
+        <v>12.53</v>
       </c>
       <c r="F5">
-        <v>12.03</v>
+        <v>12.76</v>
       </c>
       <c r="G5">
-        <v>12.42</v>
+        <v>12.02</v>
       </c>
       <c r="H5">
-        <v>11.69</v>
+        <v>11.08</v>
       </c>
       <c r="I5">
-        <v>10.81</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="J5">
-        <v>8.290000000000001</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K5">
-        <v>6.05</v>
+        <v>6.5</v>
       </c>
       <c r="L5">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="M5">
         <v>0.02</v>
       </c>
       <c r="N5">
-        <v>84.56999999999999</v>
+        <v>83.81</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1777,43 +1838,43 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>2.67</v>
+        <v>2.73</v>
       </c>
       <c r="C6">
-        <v>7.77</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>10.53</v>
+        <v>10.96</v>
       </c>
       <c r="E6">
-        <v>11.32</v>
+        <v>11.78</v>
       </c>
       <c r="F6">
-        <v>11.98</v>
+        <v>12.41</v>
       </c>
       <c r="G6">
-        <v>12.78</v>
+        <v>11.99</v>
       </c>
       <c r="H6">
-        <v>12.77</v>
+        <v>12.01</v>
       </c>
       <c r="I6">
-        <v>10.66</v>
+        <v>10.63</v>
       </c>
       <c r="J6">
-        <v>9.85</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="K6">
-        <v>8.140000000000001</v>
+        <v>7.93</v>
       </c>
       <c r="L6">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="M6">
         <v>0.01</v>
       </c>
       <c r="N6">
-        <v>80.48</v>
+        <v>80.50999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1821,131 +1882,131 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>1.81</v>
+        <v>1.41</v>
       </c>
       <c r="C7">
-        <v>6.03</v>
+        <v>5.04</v>
       </c>
       <c r="D7">
-        <v>8.279999999999999</v>
+        <v>8.52</v>
       </c>
       <c r="E7">
-        <v>10.41</v>
+        <v>10.16</v>
       </c>
       <c r="F7">
-        <v>11.33</v>
+        <v>11.15</v>
       </c>
       <c r="G7">
-        <v>11.21</v>
+        <v>11.85</v>
       </c>
       <c r="H7">
-        <v>12.31</v>
+        <v>12.72</v>
       </c>
       <c r="I7">
-        <v>12.3</v>
+        <v>12.32</v>
       </c>
       <c r="J7">
-        <v>12.34</v>
+        <v>12.76</v>
       </c>
       <c r="K7">
-        <v>11.54</v>
+        <v>11.56</v>
       </c>
       <c r="L7">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="M7">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="N7">
-        <v>73.67999999999999</v>
+        <v>73.17</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="C8">
-        <v>4.35</v>
+        <v>3.85</v>
       </c>
       <c r="D8">
-        <v>7.55</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="E8">
-        <v>9.68</v>
+        <v>8.9</v>
       </c>
       <c r="F8">
-        <v>11.2</v>
+        <v>10.15</v>
       </c>
       <c r="G8">
-        <v>11.5</v>
+        <v>11.59</v>
       </c>
       <c r="H8">
-        <v>12.52</v>
+        <v>12.12</v>
       </c>
       <c r="I8">
-        <v>12.87</v>
+        <v>13.93</v>
       </c>
       <c r="J8">
-        <v>13.25</v>
+        <v>14.1</v>
       </c>
       <c r="K8">
-        <v>12.15</v>
+        <v>14</v>
       </c>
       <c r="L8">
-        <v>3.65</v>
+        <v>3.36</v>
       </c>
       <c r="M8">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="N8">
-        <v>70.92</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>0.88</v>
+        <v>1.01</v>
       </c>
       <c r="C9">
-        <v>3.93</v>
+        <v>4.55</v>
       </c>
       <c r="D9">
-        <v>6.600000000000001</v>
+        <v>7.17</v>
       </c>
       <c r="E9">
-        <v>8.92</v>
+        <v>9.25</v>
       </c>
       <c r="F9">
-        <v>10.27</v>
+        <v>10.51</v>
       </c>
       <c r="G9">
-        <v>12.53</v>
+        <v>11.84</v>
       </c>
       <c r="H9">
-        <v>12.23</v>
+        <v>12.92</v>
       </c>
       <c r="I9">
-        <v>13.32</v>
+        <v>13.33</v>
       </c>
       <c r="J9">
-        <v>13.74</v>
+        <v>13.01</v>
       </c>
       <c r="K9">
-        <v>13.25</v>
+        <v>12.51</v>
       </c>
       <c r="L9">
-        <v>4.31</v>
+        <v>3.83</v>
       </c>
       <c r="M9">
-        <v>0.02</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="N9">
-        <v>68.68000000000001</v>
+        <v>70.58</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1953,43 +2014,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="C10">
-        <v>3.58</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="D10">
-        <v>6.819999999999999</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="E10">
-        <v>8.880000000000001</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F10">
         <v>10.87</v>
       </c>
       <c r="G10">
-        <v>12.06</v>
+        <v>11.57</v>
       </c>
       <c r="H10">
-        <v>12.8</v>
+        <v>13.12</v>
       </c>
       <c r="I10">
-        <v>13.98</v>
+        <v>14.05</v>
       </c>
       <c r="J10">
-        <v>13.97</v>
+        <v>13.36</v>
       </c>
       <c r="K10">
-        <v>12.49</v>
+        <v>11.91</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>4.07</v>
       </c>
       <c r="M10">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="N10">
-        <v>69.74000000000001</v>
+        <v>70.65000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1997,43 +2058,43 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="C11">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="D11">
-        <v>4.04</v>
+        <v>3.67</v>
       </c>
       <c r="E11">
-        <v>6.11</v>
+        <v>6.279999999999999</v>
       </c>
       <c r="F11">
-        <v>8.459999999999999</v>
+        <v>8.16</v>
       </c>
       <c r="G11">
-        <v>10.12</v>
+        <v>10.55</v>
       </c>
       <c r="H11">
-        <v>12.09</v>
+        <v>12.49</v>
       </c>
       <c r="I11">
-        <v>14.21</v>
+        <v>14.72</v>
       </c>
       <c r="J11">
-        <v>17.33</v>
+        <v>16.83</v>
       </c>
       <c r="K11">
-        <v>17.73</v>
+        <v>17.11</v>
       </c>
       <c r="L11">
         <v>7.62</v>
       </c>
       <c r="M11">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="N11">
-        <v>57.20999999999999</v>
+        <v>58.31</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2047,37 +2108,37 @@
         <v>0.01</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E12">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="F12">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="G12">
-        <v>0.44</v>
+        <v>0.53</v>
       </c>
       <c r="H12">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="I12">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="J12">
-        <v>5.609999999999999</v>
+        <v>5.36</v>
       </c>
       <c r="K12">
-        <v>15.34</v>
+        <v>14.99</v>
       </c>
       <c r="L12">
-        <v>67.2</v>
+        <v>67.47</v>
       </c>
       <c r="M12">
-        <v>7.95</v>
+        <v>8.08</v>
       </c>
       <c r="N12">
-        <v>3.9</v>
+        <v>4.100000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2109,16 +2170,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K13">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="L13">
-        <v>8.06</v>
+        <v>8.24</v>
       </c>
       <c r="M13">
-        <v>91.79000000000001</v>
+        <v>91.61</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2131,13 +2192,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2145,214 +2206,253 @@
         <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
       <c r="E7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
         <v>-9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
         <v>-11</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10">
         <v>-11</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
       <c r="E10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11">
         <v>-15</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
       <c r="E11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
         <v>-29</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
         <v>-69</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" t="s">
-        <v>50</v>
+      <c r="F13" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2370,49 +2470,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2462,7 +2562,7 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2512,7 +2612,7 @@
         <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2562,7 +2662,7 @@
         <v>28</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2612,7 +2712,7 @@
         <v>23</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2662,7 +2762,7 @@
         <v>18</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2712,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2762,7 +2862,7 @@
         <v>-9</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2812,7 +2912,7 @@
         <v>-11</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2862,7 +2962,7 @@
         <v>-11</v>
       </c>
       <c r="P10" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2912,7 +3012,7 @@
         <v>-15</v>
       </c>
       <c r="P11" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2962,7 +3062,7 @@
         <v>-29</v>
       </c>
       <c r="P12" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -3012,7 +3112,277 @@
         <v>-69</v>
       </c>
       <c r="P13" t="s">
-        <v>50</v>
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-19</v>
+      </c>
+      <c r="F2">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>-21</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>-10</v>
+      </c>
+      <c r="F4">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-8</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>-20</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>-17</v>
+      </c>
+      <c r="G7">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>-6</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>-12</v>
+      </c>
+      <c r="G9">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Family League 2022.xlsx
+++ b/Family League 2022.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="94">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -58,40 +58,46 @@
     <t>DadBods 69ers</t>
   </si>
   <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>1-13-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>1-16-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>2-15-0</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>15-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -169,58 +175,61 @@
     <t>Noah Wallach</t>
   </si>
   <si>
+    <t>Jordan Wallach</t>
+  </si>
+  <si>
+    <t>Kari Dickert</t>
+  </si>
+  <si>
     <t>Matt Wallach</t>
   </si>
   <si>
-    <t>Jordan Wallach</t>
-  </si>
-  <si>
-    <t>Kari Dickert</t>
+    <t>Zach Wallach</t>
+  </si>
+  <si>
+    <t>Diana Wallach</t>
   </si>
   <si>
     <t>Ted Wallach</t>
   </si>
   <si>
-    <t>Zach Wallach</t>
-  </si>
-  <si>
     <t>lawrence wallach</t>
   </si>
   <si>
-    <t>Diana Wallach</t>
-  </si>
-  <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
     <t>Gabe Musty</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
     <t>↑3</t>
   </si>
   <si>
+    <t>↓2</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↑8</t>
   </si>
   <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↓6</t>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -263,6 +272,15 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Week</t>
@@ -696,31 +714,31 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
         <v>12</v>
@@ -734,25 +752,25 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -764,7 +782,7 @@
         <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -772,40 +790,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -816,34 +834,34 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
         <v>12</v>
@@ -854,40 +872,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -895,34 +913,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
         <v>13</v>
@@ -936,19 +954,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -957,19 +975,19 @@
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -977,31 +995,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -1018,40 +1036,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1062,37 +1080,37 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1100,40 +1118,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
         <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1141,40 +1159,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1192,13 +1210,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1209,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.583333333333333</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1220,13 +1238,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>5.75</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1234,13 +1252,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7.75</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1248,13 +1266,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7.75</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1262,13 +1280,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>6.666666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1276,13 +1294,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>6.833333333333333</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1290,13 +1308,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1304,13 +1322,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>7.75</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1318,13 +1336,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>7.75</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1332,10 +1350,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1346,13 +1364,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>8.083333333333334</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1363,10 +1381,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>8.583333333333334</v>
+        <v>10.08333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1384,16 +1402,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1404,13 +1422,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>9.5</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>1.083333333333334</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1421,13 +1439,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>8.666666666666666</v>
+        <v>10.5</v>
       </c>
       <c r="D3">
-        <v>-0.3333333333333339</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1435,16 +1453,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>8.333333333333334</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="D4">
-        <v>0.3333333333333339</v>
+        <v>-0.5833333333333339</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1455,10 +1473,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.916666666666667</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="D5">
-        <v>0.916666666666667</v>
+        <v>1.416666666666666</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1469,16 +1487,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7.666666666666667</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="D6">
-        <v>2.666666666666667</v>
+        <v>-0.6666666666666661</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1486,16 +1504,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>7.333333333333333</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="D7">
-        <v>-1.666666666666667</v>
+        <v>1.166666666666666</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1503,13 +1521,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>7.333333333333333</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="D8">
-        <v>-0.666666666666667</v>
+        <v>-1.916666666666666</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -1520,16 +1538,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>7.083333333333333</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="D9">
-        <v>-1.916666666666667</v>
+        <v>1.833333333333334</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1537,16 +1555,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>7.083333333333333</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D10">
-        <v>0.08333333333333304</v>
+        <v>-0.6666666666666661</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1557,13 +1575,13 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>6.833333333333333</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D11">
-        <v>-0.166666666666667</v>
+        <v>-0.9166666666666661</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1574,13 +1592,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>4.25</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1591,10 +1609,10 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1615,46 +1633,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1662,28 +1680,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>63.98</v>
+        <v>65.66</v>
       </c>
       <c r="C2">
-        <v>21.8</v>
+        <v>21.34</v>
       </c>
       <c r="D2">
-        <v>8.300000000000001</v>
+        <v>7.56</v>
       </c>
       <c r="E2">
-        <v>3.36</v>
+        <v>3.32</v>
       </c>
       <c r="F2">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="G2">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="H2">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="I2">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="J2">
         <v>0.02</v>
@@ -1706,43 +1724,43 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>17.18</v>
+        <v>17.26</v>
       </c>
       <c r="C3">
-        <v>24.62</v>
+        <v>25.34</v>
       </c>
       <c r="D3">
-        <v>18.91</v>
+        <v>20.24</v>
       </c>
       <c r="E3">
-        <v>13.67</v>
+        <v>13.49</v>
       </c>
       <c r="F3">
-        <v>9.529999999999999</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="G3">
-        <v>6.49</v>
+        <v>6.05</v>
       </c>
       <c r="H3">
-        <v>4.36</v>
+        <v>3.85</v>
       </c>
       <c r="I3">
-        <v>2.89</v>
+        <v>2.55</v>
       </c>
       <c r="J3">
-        <v>1.56</v>
+        <v>1.3</v>
       </c>
       <c r="K3">
-        <v>0.6899999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="L3">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>97.64999999999999</v>
+        <v>98.06999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1750,43 +1768,43 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>7.7</v>
+        <v>7.61</v>
       </c>
       <c r="C4">
-        <v>16.04</v>
+        <v>16.33</v>
       </c>
       <c r="D4">
-        <v>16.44</v>
+        <v>16.78</v>
       </c>
       <c r="E4">
-        <v>14.7</v>
+        <v>15.43</v>
       </c>
       <c r="F4">
-        <v>12.85</v>
+        <v>12.48</v>
       </c>
       <c r="G4">
-        <v>10.93</v>
+        <v>10.51</v>
       </c>
       <c r="H4">
-        <v>7.76</v>
+        <v>8.43</v>
       </c>
       <c r="I4">
-        <v>6.329999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="J4">
-        <v>4.3</v>
+        <v>3.79</v>
       </c>
       <c r="K4">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="L4">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>92.75</v>
+        <v>93.87</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1794,43 +1812,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.65</v>
+        <v>3.12</v>
       </c>
       <c r="C5">
-        <v>9.92</v>
+        <v>9.82</v>
       </c>
       <c r="D5">
-        <v>12.33</v>
+        <v>12.69</v>
       </c>
       <c r="E5">
-        <v>12.53</v>
+        <v>12.7</v>
       </c>
       <c r="F5">
-        <v>12.76</v>
+        <v>13.43</v>
       </c>
       <c r="G5">
-        <v>12.02</v>
+        <v>12.25</v>
       </c>
       <c r="H5">
-        <v>11.08</v>
+        <v>11.37</v>
       </c>
       <c r="I5">
-        <v>9.520000000000001</v>
+        <v>9.44</v>
       </c>
       <c r="J5">
-        <v>8.720000000000001</v>
+        <v>8.16</v>
       </c>
       <c r="K5">
-        <v>6.5</v>
+        <v>6.02</v>
       </c>
       <c r="L5">
-        <v>0.95</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="M5">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="N5">
-        <v>83.81</v>
+        <v>84.81999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1838,43 +1856,43 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>2.73</v>
+        <v>2.46</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D6">
-        <v>10.96</v>
+        <v>10.53</v>
       </c>
       <c r="E6">
-        <v>11.78</v>
+        <v>11.72</v>
       </c>
       <c r="F6">
-        <v>12.41</v>
+        <v>12.86</v>
       </c>
       <c r="G6">
-        <v>11.99</v>
+        <v>12.07</v>
       </c>
       <c r="H6">
-        <v>12.01</v>
+        <v>12.16</v>
       </c>
       <c r="I6">
-        <v>10.63</v>
+        <v>10.92</v>
       </c>
       <c r="J6">
-        <v>9.969999999999999</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="K6">
-        <v>7.93</v>
+        <v>7.89</v>
       </c>
       <c r="L6">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="M6">
         <v>0.01</v>
       </c>
       <c r="N6">
-        <v>80.50999999999999</v>
+        <v>80.75999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1882,43 +1900,43 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="C7">
-        <v>5.04</v>
+        <v>5.64</v>
       </c>
       <c r="D7">
-        <v>8.52</v>
+        <v>8.35</v>
       </c>
       <c r="E7">
-        <v>10.16</v>
+        <v>10.2</v>
       </c>
       <c r="F7">
-        <v>11.15</v>
+        <v>10.8</v>
       </c>
       <c r="G7">
-        <v>11.85</v>
+        <v>12.06</v>
       </c>
       <c r="H7">
-        <v>12.72</v>
+        <v>12.82</v>
       </c>
       <c r="I7">
-        <v>12.32</v>
+        <v>12.92</v>
       </c>
       <c r="J7">
-        <v>12.76</v>
+        <v>12.44</v>
       </c>
       <c r="K7">
-        <v>11.56</v>
+        <v>11.02</v>
       </c>
       <c r="L7">
-        <v>2.48</v>
+        <v>2.47</v>
       </c>
       <c r="M7">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="N7">
-        <v>73.17</v>
+        <v>74.06</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1926,43 +1944,43 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.11</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="C8">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="D8">
-        <v>6.850000000000001</v>
+        <v>6.63</v>
       </c>
       <c r="E8">
-        <v>8.9</v>
+        <v>8.4</v>
       </c>
       <c r="F8">
-        <v>10.15</v>
+        <v>10.42</v>
       </c>
       <c r="G8">
-        <v>11.59</v>
+        <v>11.66</v>
       </c>
       <c r="H8">
-        <v>12.12</v>
+        <v>13.11</v>
       </c>
       <c r="I8">
+        <v>13.2</v>
+      </c>
+      <c r="J8">
         <v>13.93</v>
       </c>
-      <c r="J8">
-        <v>14.1</v>
-      </c>
       <c r="K8">
-        <v>14</v>
+        <v>14.49</v>
       </c>
       <c r="L8">
-        <v>3.36</v>
+        <v>3.56</v>
       </c>
       <c r="M8">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="N8">
-        <v>68.5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1970,43 +1988,43 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>1.01</v>
+        <v>0.8</v>
       </c>
       <c r="C9">
-        <v>4.55</v>
+        <v>4.51</v>
       </c>
       <c r="D9">
-        <v>7.17</v>
+        <v>6.76</v>
       </c>
       <c r="E9">
-        <v>9.25</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="F9">
-        <v>10.51</v>
+        <v>11.07</v>
       </c>
       <c r="G9">
-        <v>11.84</v>
+        <v>12.19</v>
       </c>
       <c r="H9">
-        <v>12.92</v>
+        <v>12.21</v>
       </c>
       <c r="I9">
-        <v>13.33</v>
+        <v>13.08</v>
       </c>
       <c r="J9">
-        <v>13.01</v>
+        <v>13.53</v>
       </c>
       <c r="K9">
-        <v>12.51</v>
+        <v>12.84</v>
       </c>
       <c r="L9">
-        <v>3.83</v>
+        <v>3.55</v>
       </c>
       <c r="M9">
         <v>0.06999999999999999</v>
       </c>
       <c r="N9">
-        <v>70.58</v>
+        <v>70.00999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2014,43 +2032,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8500000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="C10">
-        <v>4.109999999999999</v>
+        <v>3.46</v>
       </c>
       <c r="D10">
-        <v>6.800000000000001</v>
+        <v>6.660000000000001</v>
       </c>
       <c r="E10">
-        <v>9.279999999999999</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="F10">
-        <v>10.87</v>
+        <v>10.45</v>
       </c>
       <c r="G10">
-        <v>11.57</v>
+        <v>12.3</v>
       </c>
       <c r="H10">
-        <v>13.12</v>
+        <v>12.64</v>
       </c>
       <c r="I10">
-        <v>14.05</v>
+        <v>14.37</v>
       </c>
       <c r="J10">
-        <v>13.36</v>
+        <v>14.14</v>
       </c>
       <c r="K10">
-        <v>11.91</v>
+        <v>12.52</v>
       </c>
       <c r="L10">
-        <v>4.07</v>
+        <v>3.78</v>
       </c>
       <c r="M10">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N10">
-        <v>70.65000000000001</v>
+        <v>69.53999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2058,43 +2076,43 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.38</v>
+        <v>0.27</v>
       </c>
       <c r="C11">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="D11">
-        <v>3.67</v>
+        <v>3.78</v>
       </c>
       <c r="E11">
-        <v>6.279999999999999</v>
+        <v>6.27</v>
       </c>
       <c r="F11">
-        <v>8.16</v>
+        <v>7.81</v>
       </c>
       <c r="G11">
-        <v>10.55</v>
+        <v>9.92</v>
       </c>
       <c r="H11">
-        <v>12.49</v>
+        <v>12.37</v>
       </c>
       <c r="I11">
-        <v>14.72</v>
+        <v>14.98</v>
       </c>
       <c r="J11">
-        <v>16.83</v>
+        <v>17.54</v>
       </c>
       <c r="K11">
-        <v>17.11</v>
+        <v>18.19</v>
       </c>
       <c r="L11">
-        <v>7.62</v>
+        <v>6.9</v>
       </c>
       <c r="M11">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="N11">
-        <v>58.31</v>
+        <v>57.27</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2105,40 +2123,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E12">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="F12">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="G12">
-        <v>0.53</v>
+        <v>0.38</v>
       </c>
       <c r="H12">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="I12">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="J12">
-        <v>5.36</v>
+        <v>5.19</v>
       </c>
       <c r="K12">
-        <v>14.99</v>
+        <v>14.2</v>
       </c>
       <c r="L12">
-        <v>67.47</v>
+        <v>68.53</v>
       </c>
       <c r="M12">
-        <v>8.08</v>
+        <v>8.450000000000001</v>
       </c>
       <c r="N12">
-        <v>4.100000000000001</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2170,16 +2188,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="L13">
-        <v>8.24</v>
+        <v>8.6</v>
       </c>
       <c r="M13">
-        <v>91.61</v>
+        <v>91.31</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2200,19 +2218,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2223,16 +2241,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2243,16 +2261,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2263,16 +2281,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2280,19 +2298,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2300,19 +2318,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2320,19 +2338,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2340,19 +2358,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8">
         <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8">
-        <v>-9</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2360,19 +2378,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2380,19 +2398,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2400,19 +2418,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2423,16 +2441,16 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12">
-        <v>-29</v>
+        <v>-35</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2443,16 +2461,16 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13">
-        <v>-69</v>
+        <v>-93</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2462,60 +2480,69 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2561,11 +2588,20 @@
       <c r="O2">
         <v>42</v>
       </c>
-      <c r="P2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2">
+        <v>47</v>
+      </c>
+      <c r="Q2">
+        <v>49</v>
+      </c>
+      <c r="R2">
+        <v>52</v>
+      </c>
+      <c r="S2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2611,11 +2647,20 @@
       <c r="O3">
         <v>32</v>
       </c>
-      <c r="P3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>39</v>
+      </c>
+      <c r="Q3">
+        <v>39</v>
+      </c>
+      <c r="R3">
+        <v>37</v>
+      </c>
+      <c r="S3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2661,361 +2706,433 @@
       <c r="O4">
         <v>28</v>
       </c>
-      <c r="P4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4">
+        <v>33</v>
+      </c>
+      <c r="Q4">
+        <v>31</v>
+      </c>
+      <c r="R4">
+        <v>34</v>
+      </c>
+      <c r="S4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>23</v>
+      </c>
+      <c r="J5">
+        <v>26</v>
+      </c>
+      <c r="K5">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>13</v>
+      </c>
+      <c r="M5">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <v>14</v>
+      </c>
+      <c r="O5">
+        <v>18</v>
+      </c>
+      <c r="P5">
+        <v>16</v>
+      </c>
+      <c r="Q5">
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <v>17</v>
+      </c>
+      <c r="S5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>17</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>18</v>
-      </c>
-      <c r="I5">
-        <v>15</v>
-      </c>
-      <c r="J5">
-        <v>19</v>
-      </c>
-      <c r="K5">
-        <v>17</v>
-      </c>
-      <c r="L5">
-        <v>16</v>
-      </c>
-      <c r="M5">
-        <v>15</v>
-      </c>
-      <c r="N5">
-        <v>20</v>
-      </c>
-      <c r="O5">
-        <v>23</v>
-      </c>
-      <c r="P5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
+      <c r="D6">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>7</v>
       </c>
       <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>-1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>8</v>
+      </c>
+      <c r="Q6">
+        <v>12</v>
+      </c>
+      <c r="R6">
+        <v>12</v>
+      </c>
+      <c r="S6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
         <v>13</v>
       </c>
-      <c r="H6">
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7">
         <v>14</v>
       </c>
-      <c r="I6">
+      <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <v>16</v>
+      </c>
+      <c r="M7">
+        <v>15</v>
+      </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7">
         <v>23</v>
       </c>
-      <c r="J6">
-        <v>26</v>
-      </c>
-      <c r="K6">
-        <v>18</v>
-      </c>
-      <c r="L6">
-        <v>13</v>
-      </c>
-      <c r="M6">
-        <v>14</v>
-      </c>
-      <c r="N6">
-        <v>14</v>
-      </c>
-      <c r="O6">
-        <v>18</v>
-      </c>
-      <c r="P6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="P7">
+        <v>16</v>
+      </c>
+      <c r="Q7">
+        <v>9</v>
+      </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="S7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>-1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="P7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>-5</v>
-      </c>
       <c r="I8">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="J8">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="K8">
+        <v>-13</v>
+      </c>
+      <c r="L8">
         <v>-14</v>
-      </c>
-      <c r="L8">
-        <v>-11</v>
       </c>
       <c r="M8">
         <v>-10</v>
       </c>
       <c r="N8">
+        <v>-7</v>
+      </c>
+      <c r="O8">
+        <v>-11</v>
+      </c>
+      <c r="P8">
+        <v>-11</v>
+      </c>
+      <c r="Q8">
+        <v>-9</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>-7</v>
+      </c>
+      <c r="C9">
+        <v>-16</v>
+      </c>
+      <c r="D9">
+        <v>-25</v>
+      </c>
+      <c r="E9">
+        <v>-29</v>
+      </c>
+      <c r="F9">
+        <v>-19</v>
+      </c>
+      <c r="G9">
+        <v>-20</v>
+      </c>
+      <c r="H9">
+        <v>-17</v>
+      </c>
+      <c r="I9">
+        <v>-19</v>
+      </c>
+      <c r="J9">
+        <v>-16</v>
+      </c>
+      <c r="K9">
+        <v>-14</v>
+      </c>
+      <c r="L9">
+        <v>-13</v>
+      </c>
+      <c r="M9">
+        <v>-12</v>
+      </c>
+      <c r="N9">
+        <v>-10</v>
+      </c>
+      <c r="O9">
+        <v>-15</v>
+      </c>
+      <c r="P9">
+        <v>-14</v>
+      </c>
+      <c r="Q9">
+        <v>-16</v>
+      </c>
+      <c r="R9">
+        <v>-8</v>
+      </c>
+      <c r="S9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>-5</v>
+      </c>
+      <c r="I10">
+        <v>-9</v>
+      </c>
+      <c r="J10">
+        <v>-16</v>
+      </c>
+      <c r="K10">
+        <v>-14</v>
+      </c>
+      <c r="L10">
+        <v>-11</v>
+      </c>
+      <c r="M10">
+        <v>-10</v>
+      </c>
+      <c r="N10">
         <v>-6</v>
       </c>
-      <c r="O8">
+      <c r="O10">
         <v>-9</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P10">
+        <v>-10</v>
+      </c>
+      <c r="Q10">
+        <v>-10</v>
+      </c>
+      <c r="R10">
+        <v>-9</v>
+      </c>
+      <c r="S10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>-2</v>
-      </c>
-      <c r="J9">
-        <v>-10</v>
-      </c>
-      <c r="K9">
-        <v>-13</v>
-      </c>
-      <c r="L9">
+      <c r="C11">
+        <v>-6</v>
+      </c>
+      <c r="D11">
+        <v>-9</v>
+      </c>
+      <c r="E11">
+        <v>-4</v>
+      </c>
+      <c r="F11">
+        <v>-11</v>
+      </c>
+      <c r="G11">
+        <v>-12</v>
+      </c>
+      <c r="H11">
+        <v>-11</v>
+      </c>
+      <c r="I11">
+        <v>-15</v>
+      </c>
+      <c r="J11">
+        <v>-8</v>
+      </c>
+      <c r="K11">
+        <v>-8</v>
+      </c>
+      <c r="L11">
+        <v>-3</v>
+      </c>
+      <c r="M11">
+        <v>-7</v>
+      </c>
+      <c r="N11">
+        <v>-9</v>
+      </c>
+      <c r="O11">
+        <v>-11</v>
+      </c>
+      <c r="P11">
+        <v>-16</v>
+      </c>
+      <c r="Q11">
+        <v>-9</v>
+      </c>
+      <c r="R11">
         <v>-14</v>
       </c>
-      <c r="M9">
-        <v>-10</v>
-      </c>
-      <c r="N9">
-        <v>-7</v>
-      </c>
-      <c r="O9">
-        <v>-11</v>
-      </c>
-      <c r="P9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>-6</v>
-      </c>
-      <c r="D10">
-        <v>-9</v>
-      </c>
-      <c r="E10">
-        <v>-4</v>
-      </c>
-      <c r="F10">
-        <v>-11</v>
-      </c>
-      <c r="G10">
-        <v>-12</v>
-      </c>
-      <c r="H10">
-        <v>-11</v>
-      </c>
-      <c r="I10">
-        <v>-15</v>
-      </c>
-      <c r="J10">
-        <v>-8</v>
-      </c>
-      <c r="K10">
-        <v>-8</v>
-      </c>
-      <c r="L10">
-        <v>-3</v>
-      </c>
-      <c r="M10">
-        <v>-7</v>
-      </c>
-      <c r="N10">
-        <v>-9</v>
-      </c>
-      <c r="O10">
-        <v>-11</v>
-      </c>
-      <c r="P10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>-7</v>
-      </c>
-      <c r="C11">
-        <v>-16</v>
-      </c>
-      <c r="D11">
-        <v>-25</v>
-      </c>
-      <c r="E11">
-        <v>-29</v>
-      </c>
-      <c r="F11">
-        <v>-19</v>
-      </c>
-      <c r="G11">
-        <v>-20</v>
-      </c>
-      <c r="H11">
-        <v>-17</v>
-      </c>
-      <c r="I11">
-        <v>-19</v>
-      </c>
-      <c r="J11">
-        <v>-16</v>
-      </c>
-      <c r="K11">
-        <v>-14</v>
-      </c>
-      <c r="L11">
-        <v>-13</v>
-      </c>
-      <c r="M11">
-        <v>-12</v>
-      </c>
-      <c r="N11">
-        <v>-10</v>
-      </c>
-      <c r="O11">
-        <v>-15</v>
-      </c>
-      <c r="P11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="S11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3061,11 +3178,20 @@
       <c r="O12">
         <v>-29</v>
       </c>
-      <c r="P12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12">
+        <v>-33</v>
+      </c>
+      <c r="Q12">
+        <v>-28</v>
+      </c>
+      <c r="R12">
+        <v>-35</v>
+      </c>
+      <c r="S12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -3111,8 +3237,17 @@
       <c r="O13">
         <v>-69</v>
       </c>
-      <c r="P13" t="s">
-        <v>63</v>
+      <c r="P13">
+        <v>-75</v>
+      </c>
+      <c r="Q13">
+        <v>-84</v>
+      </c>
+      <c r="R13">
+        <v>-93</v>
+      </c>
+      <c r="S13" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3130,25 +3265,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3182,25 +3317,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-21</v>
+        <v>-10</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3208,25 +3343,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>-10</v>
+        <v>-21</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3234,25 +3369,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="F5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3260,25 +3395,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>-20</v>
+        <v>47</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3286,25 +3421,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>-8</v>
       </c>
       <c r="F7">
-        <v>-17</v>
+        <v>27</v>
       </c>
       <c r="G7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3312,25 +3447,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>24</v>
+        <v>-20</v>
       </c>
       <c r="F8">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3338,25 +3473,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
       <c r="E9">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="F9">
-        <v>-12</v>
+        <v>16</v>
       </c>
       <c r="G9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3364,25 +3499,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>-17</v>
+      </c>
+      <c r="G10">
         <v>31</v>
       </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10">
-        <v>26</v>
-      </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
